--- a/administrator/data-guru/upload-guru.xlsx
+++ b/administrator/data-guru/upload-guru.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\qurma\administrator\data-guru\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Ampps\www\qurma\administrator\data-guru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB64D46-47BD-47B2-B535-A5DCC3AA5DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823213CD-F6A2-4F62-8B34-16DE467D79AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -31,46 +31,10 @@
     <t>nama</t>
   </si>
   <si>
-    <t>SDIT Al Manar Pondok Kelapa</t>
+    <t>status</t>
   </si>
   <si>
-    <t>SDIT Nur Hikmah Bekasi</t>
-  </si>
-  <si>
-    <t>Erna Sutiyana, S.Pd</t>
-  </si>
-  <si>
-    <t>Siti Alfiah</t>
-  </si>
-  <si>
-    <t>Sifa Nurjanah, S.Pd</t>
-  </si>
-  <si>
-    <t>Muhammad Zidan Ghonim</t>
-  </si>
-  <si>
-    <t>Lailan Thowila</t>
-  </si>
-  <si>
-    <t>Ahmad Baidhowi, S.Pd</t>
-  </si>
-  <si>
-    <t>Nida</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Selvi</t>
-  </si>
-  <si>
-    <t>Anita</t>
-  </si>
-  <si>
-    <t>Achmi Firmansyah, S.Ag</t>
-  </si>
-  <si>
-    <t>Fitri</t>
+    <t>sertifikasi</t>
   </si>
 </sst>
 </file>
@@ -925,15 +889,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -943,101 +907,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
